--- a/PythonResources/Data/Consumption/Sympheny/post_CA_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_CA_hea.xlsx
@@ -407,7 +407,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17.13363629063504</v>
+        <v>17.13363629063503</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -575,7 +575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>52.93493060957018</v>
+        <v>52.93493060957017</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>546.3362896385908</v>
+        <v>546.3362896385906</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>448.2451199275998</v>
+        <v>448.2451199275997</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>43.46419345970948</v>
+        <v>43.46419345970947</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>118.7588324284277</v>
+        <v>118.7588324284276</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>347.5614731157145</v>
+        <v>347.5614731157144</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>23.68781838504963</v>
+        <v>23.68781838504962</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>543.7736764765359</v>
+        <v>543.7736764765358</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>514.1995848941809</v>
+        <v>514.1995848941808</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>543.6839967387056</v>
+        <v>543.6839967387054</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>57.34556182011184</v>
+        <v>57.34556182011183</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>90.76791059692124</v>
+        <v>90.76791059692123</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>75.35325317645047</v>
+        <v>75.35325317645045</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>61.33677906722524</v>
+        <v>61.33677906722522</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>119.1682526694376</v>
+        <v>119.1682526694375</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>798.7223274998521</v>
+        <v>798.722327499852</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>855.7363673610303</v>
+        <v>855.73636736103</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>415.3030852760525</v>
+        <v>415.3030852760524</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>706.1265328348001</v>
+        <v>706.1265328347999</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>83.48011307852957</v>
+        <v>83.48011307852956</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>889.4254693972291</v>
+        <v>889.425469397229</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>777.0995462674181</v>
+        <v>777.099546267418</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>41.49648519903334</v>
+        <v>41.49648519903333</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>273.9991184423158</v>
+        <v>273.9991184423157</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>148.7503157840442</v>
+        <v>148.7503157840441</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>401.4402096981897</v>
+        <v>401.4402096981896</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>33.24568555470435</v>
+        <v>33.24568555470434</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>879.1105411205044</v>
+        <v>879.1105411205043</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>287.2247110466095</v>
+        <v>287.2247110466094</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>35.49569156266065</v>
+        <v>35.49569156266064</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>39.50011459077612</v>
+        <v>39.50011459077611</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>32.68005845008796</v>
+        <v>32.68005845008795</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>17.45742117414809</v>
+        <v>17.45742117414808</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>52.19237651891393</v>
+        <v>52.19237651891392</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>64.82760682292825</v>
+        <v>64.82760682292823</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>59.30585538350984</v>
+        <v>59.30585538350983</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>561.9027578570881</v>
+        <v>561.902757857088</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>288.9013118445833</v>
+        <v>288.9013118445832</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>86.86628516632662</v>
+        <v>86.86628516632661</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>1105.188764125292</v>
+        <v>1105.188764125291</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>428.4686862387322</v>
+        <v>428.4686862387321</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>511.0862912504814</v>
+        <v>511.0862912504813</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>221.4928335338917</v>
+        <v>221.4928335338916</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>968.1100610701432</v>
+        <v>968.110061070143</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>797.2358711917617</v>
+        <v>797.2358711917616</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>1198.874196912087</v>
+        <v>1198.874196912086</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>971.7332983211134</v>
+        <v>971.7332983211132</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>98.82885882240541</v>
+        <v>98.82885882240539</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>191.7789470660952</v>
+        <v>191.7789470660951</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>253.8736664535064</v>
+        <v>253.8736664535063</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>205.3085715658962</v>
+        <v>205.3085715658961</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>168.2570655031356</v>
+        <v>168.2570655031355</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>149.5309984168303</v>
+        <v>149.5309984168302</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>281.5917391480191</v>
+        <v>281.591739148019</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>506</v>
       </c>
       <c r="B506">
-        <v>354.2273445829629</v>
+        <v>354.2273445829628</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>507</v>
       </c>
       <c r="B507">
-        <v>356.7838032532058</v>
+        <v>356.7838032532057</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>337.8139010627343</v>
+        <v>337.8139010627342</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>531</v>
       </c>
       <c r="B531">
-        <v>276.312064386535</v>
+        <v>276.3120643865349</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>562</v>
       </c>
       <c r="B562">
-        <v>940.1739435228664</v>
+        <v>940.1739435228662</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>802.8707480521034</v>
+        <v>802.8707480521033</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>89.89713792685066</v>
+        <v>89.89713792685063</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>679.6027246228323</v>
+        <v>679.6027246228322</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>56.16970219879478</v>
+        <v>56.16970219879477</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>679.9933883173679</v>
+        <v>679.9933883173678</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>305.3818686326654</v>
+        <v>305.3818686326653</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>83.54842793764153</v>
+        <v>83.54842793764152</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>93.95798885274998</v>
+        <v>93.95798885274996</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>668</v>
       </c>
       <c r="B668">
-        <v>212.5468400787541</v>
+        <v>212.546840078754</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>682</v>
       </c>
       <c r="B682">
-        <v>821.7052514227134</v>
+        <v>821.7052514227133</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>389.9803994089344</v>
+        <v>389.9803994089343</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>691</v>
       </c>
       <c r="B691">
-        <v>848.5039602689455</v>
+        <v>848.5039602689454</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>693</v>
       </c>
       <c r="B693">
-        <v>69.26833642914042</v>
+        <v>69.2683364291404</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>929.9231978036086</v>
+        <v>929.9231978036084</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>834.7193639655092</v>
+        <v>834.719363965509</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>60.59448874050377</v>
+        <v>60.59448874050376</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>718</v>
       </c>
       <c r="B718">
-        <v>95.04548755591064</v>
+        <v>95.04548755591063</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>725</v>
       </c>
       <c r="B725">
-        <v>201.9265317797443</v>
+        <v>201.9265317797442</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>732</v>
       </c>
       <c r="B732">
-        <v>417.4938499042538</v>
+        <v>417.4938499042537</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>769</v>
       </c>
       <c r="B769">
-        <v>99.39152590953132</v>
+        <v>99.39152590953131</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>738.9024255145303</v>
+        <v>738.9024255145301</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>786</v>
       </c>
       <c r="B786">
-        <v>843.4218153875191</v>
+        <v>843.421815387519</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>789</v>
       </c>
       <c r="B789">
-        <v>90.52609768292177</v>
+        <v>90.52609768292174</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>797</v>
       </c>
       <c r="B797">
-        <v>277.5121902898532</v>
+        <v>277.5121902898531</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>192.4849551982304</v>
+        <v>192.4849551982303</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>838</v>
       </c>
       <c r="B838">
-        <v>404.781219538929</v>
+        <v>404.7812195389289</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>460.9172185682777</v>
+        <v>460.9172185682776</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>843</v>
       </c>
       <c r="B843">
-        <v>499.8446723495096</v>
+        <v>499.8446723495094</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>852</v>
       </c>
       <c r="B852">
-        <v>940.2111635447764</v>
+        <v>940.2111635447762</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>634.1746621330532</v>
+        <v>634.1746621330531</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>856</v>
       </c>
       <c r="B856">
-        <v>670.0409889154673</v>
+        <v>670.0409889154671</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>784.973778934171</v>
+        <v>784.9737789341709</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7303,7 +7303,7 @@
         <v>870</v>
       </c>
       <c r="B870">
-        <v>2079.579630624986</v>
+        <v>2079.579630624985</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>203.6770450936685</v>
+        <v>203.6770450936684</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>675.2895981468533</v>
+        <v>675.2895981468532</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>47.64016268959499</v>
+        <v>47.64016268959498</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>81.97665865019687</v>
+        <v>81.97665865019685</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>52.90993164997237</v>
+        <v>52.90993164997236</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>966</v>
       </c>
       <c r="B966">
-        <v>59.46959417280993</v>
+        <v>59.46959417280992</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>26.57719989379106</v>
+        <v>26.57719989379105</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>27.23790510476997</v>
+        <v>27.23790510476996</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>984</v>
       </c>
       <c r="B984">
-        <v>23.36443500885954</v>
+        <v>23.36443500885953</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>986</v>
       </c>
       <c r="B986">
-        <v>20.82775570301588</v>
+        <v>20.82775570301587</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>53.10291892893086</v>
+        <v>53.10291892893085</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8399,7 +8399,7 @@
         <v>1007</v>
       </c>
       <c r="B1007">
-        <v>61.68031693874406</v>
+        <v>61.68031693874405</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>1009</v>
       </c>
       <c r="B1009">
-        <v>78.42961986927861</v>
+        <v>78.42961986927858</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>529.6678743147268</v>
+        <v>529.6678743147266</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>387.2734487603389</v>
+        <v>387.2734487603388</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>831.096126714539</v>
+        <v>831.0961267145389</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>59.1628367166431</v>
+        <v>59.16283671664309</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>1030</v>
       </c>
       <c r="B1030">
-        <v>90.03467616529443</v>
+        <v>90.03467616529441</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>1036</v>
       </c>
       <c r="B1036">
-        <v>218.9360817926101</v>
+        <v>218.93608179261</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>1040</v>
       </c>
       <c r="B1040">
-        <v>968.1206116275349</v>
+        <v>968.1206116275348</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>65.0782704822953</v>
+        <v>65.07827048229528</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>1058</v>
       </c>
       <c r="B1058">
-        <v>82.59999144232567</v>
+        <v>82.59999144232566</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>1059</v>
       </c>
       <c r="B1059">
-        <v>87.87266180598581</v>
+        <v>87.8726618059858</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>68.32077914694057</v>
+        <v>68.32077914694054</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>1063</v>
       </c>
       <c r="B1063">
-        <v>853.9527370197372</v>
+        <v>853.9527370197371</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>1064</v>
       </c>
       <c r="B1064">
-        <v>680.7076024385856</v>
+        <v>680.7076024385855</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>1065</v>
       </c>
       <c r="B1065">
-        <v>457.4534119623393</v>
+        <v>457.4534119623392</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>1067</v>
       </c>
       <c r="B1067">
-        <v>288.6526762368038</v>
+        <v>288.6526762368037</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>39.14080949737731</v>
+        <v>39.1408094973773</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>1087</v>
       </c>
       <c r="B1087">
-        <v>785.9277251650137</v>
+        <v>785.9277251650136</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>497.5496330457526</v>
+        <v>497.5496330457525</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>427.1246624554313</v>
+        <v>427.1246624554312</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>73.47800882847199</v>
+        <v>73.47800882847197</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>895.3021298644665</v>
+        <v>895.3021298644663</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>1123</v>
       </c>
       <c r="B1123">
-        <v>889.229991014442</v>
+        <v>889.2299910144419</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>1137</v>
       </c>
       <c r="B1137">
-        <v>181.7597274673798</v>
+        <v>181.7597274673797</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>128.0943172939462</v>
+        <v>128.0943172939461</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>242.916326460036</v>
+        <v>242.9163264600359</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9583,7 +9583,7 @@
         <v>1155</v>
       </c>
       <c r="B1155">
-        <v>280.5097208732814</v>
+        <v>280.5097208732813</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9711,7 +9711,7 @@
         <v>1171</v>
       </c>
       <c r="B1171">
-        <v>134.3894832043919</v>
+        <v>134.3894832043918</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>1185</v>
       </c>
       <c r="B1185">
-        <v>98.93374894714231</v>
+        <v>98.93374894714228</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9831,7 +9831,7 @@
         <v>1186</v>
       </c>
       <c r="B1186">
-        <v>88.92390762166406</v>
+        <v>88.92390762166404</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -9839,7 +9839,7 @@
         <v>1187</v>
       </c>
       <c r="B1187">
-        <v>55.9428652148709</v>
+        <v>55.94286521487089</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
@@ -9927,7 +9927,7 @@
         <v>1198</v>
       </c>
       <c r="B1198">
-        <v>88.31256143501649</v>
+        <v>88.31256143501648</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>1205</v>
       </c>
       <c r="B1205">
-        <v>145.8629212969449</v>
+        <v>145.8629212969448</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -9999,7 +9999,7 @@
         <v>1207</v>
       </c>
       <c r="B1207">
-        <v>1250.658677159392</v>
+        <v>1250.658677159391</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>661.4238211657077</v>
+        <v>661.4238211657076</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10071,7 +10071,7 @@
         <v>1216</v>
       </c>
       <c r="B1216">
-        <v>534.5276368920169</v>
+        <v>534.5276368920167</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>22.82032811061205</v>
+        <v>22.82032811061204</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10183,7 +10183,7 @@
         <v>1230</v>
       </c>
       <c r="B1230">
-        <v>890.5729304348999</v>
+        <v>890.5729304348998</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>648.0509896715905</v>
+        <v>648.0509896715904</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>580.0726933404296</v>
+        <v>580.0726933404295</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10623,7 +10623,7 @@
         <v>1285</v>
       </c>
       <c r="B1285">
-        <v>303.2713175477458</v>
+        <v>303.2713175477456</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10631,7 +10631,7 @@
         <v>1286</v>
       </c>
       <c r="B1286">
-        <v>283.1312120070033</v>
+        <v>283.1312120070032</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>26.11673253926713</v>
+        <v>26.11673253926712</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>685.4419892255364</v>
+        <v>685.4419892255363</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11343,7 +11343,7 @@
         <v>1375</v>
       </c>
       <c r="B1375">
-        <v>529.3909807973995</v>
+        <v>529.3909807973994</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>258.0804374495552</v>
+        <v>258.0804374495551</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>4.175734773054581</v>
+        <v>4.17573477305458</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>8.785331911743416</v>
+        <v>8.785331911743414</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11527,7 +11527,7 @@
         <v>1398</v>
       </c>
       <c r="B1398">
-        <v>411.68210467208</v>
+        <v>411.6821046720799</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
@@ -11615,7 +11615,7 @@
         <v>1409</v>
       </c>
       <c r="B1409">
-        <v>56.91615413426523</v>
+        <v>56.91615413426522</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -11671,7 +11671,7 @@
         <v>1416</v>
       </c>
       <c r="B1416">
-        <v>42.50878187367349</v>
+        <v>42.50878187367348</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11735,7 +11735,7 @@
         <v>1424</v>
       </c>
       <c r="B1424">
-        <v>632.3713960321699</v>
+        <v>632.3713960321697</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>486.2511583632804</v>
+        <v>486.2511583632803</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1441</v>
       </c>
       <c r="B1441">
-        <v>76.87007164414612</v>
+        <v>76.87007164414611</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>905.2064656160267</v>
+        <v>905.2064656160265</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>649.14355850372</v>
+        <v>649.1435585037199</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>672.2821031481105</v>
+        <v>672.2821031481104</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12047,7 +12047,7 @@
         <v>1463</v>
       </c>
       <c r="B1463">
-        <v>92.43741907575946</v>
+        <v>92.43741907575945</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>42.58480450110225</v>
+        <v>42.58480450110224</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12287,7 +12287,7 @@
         <v>1493</v>
       </c>
       <c r="B1493">
-        <v>259.8737098280201</v>
+        <v>259.87370982802</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1520</v>
       </c>
       <c r="B1520">
-        <v>627.245583565983</v>
+        <v>627.2455835659829</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>87.27860681061927</v>
+        <v>87.27860681061925</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12719,7 +12719,7 @@
         <v>1547</v>
       </c>
       <c r="B1547">
-        <v>277.2320729911007</v>
+        <v>277.2320729911006</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>125.0131911274502</v>
+        <v>125.0131911274501</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12791,7 +12791,7 @@
         <v>1556</v>
       </c>
       <c r="B1556">
-        <v>23.36066318459197</v>
+        <v>23.36066318459196</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12815,7 +12815,7 @@
         <v>1559</v>
       </c>
       <c r="B1559">
-        <v>41.68085618945519</v>
+        <v>41.68085618945518</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -12847,7 +12847,7 @@
         <v>1563</v>
       </c>
       <c r="B1563">
-        <v>37.8047748305903</v>
+        <v>37.80477483059028</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>38.18276906412454</v>
+        <v>38.18276906412453</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -12919,7 +12919,7 @@
         <v>1572</v>
       </c>
       <c r="B1572">
-        <v>44.85803931958284</v>
+        <v>44.85803931958283</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -13007,7 +13007,7 @@
         <v>1583</v>
       </c>
       <c r="B1583">
-        <v>3.518522968856514</v>
+        <v>3.518522968856513</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>5.581098324747329</v>
+        <v>5.581098324747328</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13175,7 +13175,7 @@
         <v>1604</v>
       </c>
       <c r="B1604">
-        <v>63.40767764061403</v>
+        <v>63.40767764061402</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>90.25638440604173</v>
+        <v>90.25638440604172</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13327,7 +13327,7 @@
         <v>1623</v>
       </c>
       <c r="B1623">
-        <v>252.2184012271471</v>
+        <v>252.218401227147</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13375,7 +13375,7 @@
         <v>1629</v>
       </c>
       <c r="B1629">
-        <v>62.43760664122421</v>
+        <v>62.43760664122419</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13439,7 +13439,7 @@
         <v>1637</v>
       </c>
       <c r="B1637">
-        <v>180.5138824820304</v>
+        <v>180.5138824820303</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>79.78545441543758</v>
+        <v>79.78545441543757</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13503,7 +13503,7 @@
         <v>1645</v>
       </c>
       <c r="B1645">
-        <v>38.55843188823912</v>
+        <v>38.55843188823911</v>
       </c>
     </row>
     <row r="1646" spans="1:2">
@@ -13631,7 +13631,7 @@
         <v>1661</v>
       </c>
       <c r="B1661">
-        <v>182.9815406275589</v>
+        <v>182.9815406275588</v>
       </c>
     </row>
     <row r="1662" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>24.37398560786744</v>
+        <v>24.37398560786743</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>59.73491138411004</v>
+        <v>59.73491138411003</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>436.5442587090456</v>
+        <v>436.5442587090455</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>160.6848220267504</v>
+        <v>160.6848220267503</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13943,7 +13943,7 @@
         <v>1700</v>
       </c>
       <c r="B1700">
-        <v>29.06658046470517</v>
+        <v>29.06658046470516</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13967,7 +13967,7 @@
         <v>1703</v>
       </c>
       <c r="B1703">
-        <v>43.28115008109276</v>
+        <v>43.28115008109275</v>
       </c>
     </row>
     <row r="1704" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>55.20546917449509</v>
+        <v>55.20546917449508</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>57.56770966741713</v>
+        <v>57.56770966741712</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>775.5275132160385</v>
+        <v>775.5275132160384</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>253.9384937672583</v>
+        <v>253.9384937672582</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14175,7 +14175,7 @@
         <v>1729</v>
       </c>
       <c r="B1729">
-        <v>45.05246557734116</v>
+        <v>45.05246557734115</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>772.9742783272209</v>
+        <v>772.9742783272208</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14359,7 +14359,7 @@
         <v>1752</v>
       </c>
       <c r="B1752">
-        <v>55.55733026351191</v>
+        <v>55.55733026351189</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14375,7 +14375,7 @@
         <v>1754</v>
       </c>
       <c r="B1754">
-        <v>71.53597359078258</v>
+        <v>71.53597359078256</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14551,7 +14551,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>49.6870646063382</v>
+        <v>49.68706460633819</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14591,7 +14591,7 @@
         <v>1781</v>
       </c>
       <c r="B1781">
-        <v>1004.534395110169</v>
+        <v>1004.534395110168</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14599,7 +14599,7 @@
         <v>1782</v>
       </c>
       <c r="B1782">
-        <v>756.3518751564268</v>
+        <v>756.3518751564267</v>
       </c>
     </row>
     <row r="1783" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>327.4339110154267</v>
+        <v>327.4339110154266</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>55.71092879487431</v>
+        <v>55.7109287948743</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>49.53687156044503</v>
+        <v>49.53687156044502</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>46.20032812233489</v>
+        <v>46.20032812233488</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14903,7 +14903,7 @@
         <v>1820</v>
       </c>
       <c r="B1820">
-        <v>47.76319391162502</v>
+        <v>47.76319391162501</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
@@ -15039,7 +15039,7 @@
         <v>1837</v>
       </c>
       <c r="B1837">
-        <v>3.459762225604914</v>
+        <v>3.459762225604913</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
@@ -15111,7 +15111,7 @@
         <v>1846</v>
       </c>
       <c r="B1846">
-        <v>37.20340478209876</v>
+        <v>37.20340478209875</v>
       </c>
     </row>
     <row r="1847" spans="1:2">
@@ -15183,7 +15183,7 @@
         <v>1855</v>
       </c>
       <c r="B1855">
-        <v>741.7030123599781</v>
+        <v>741.7030123599779</v>
       </c>
     </row>
     <row r="1856" spans="1:2">
@@ -15199,7 +15199,7 @@
         <v>1857</v>
       </c>
       <c r="B1857">
-        <v>303.287465761976</v>
+        <v>303.2874657619759</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>208.4662596105321</v>
+        <v>208.466259610532</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>30.54475458524294</v>
+        <v>30.54475458524293</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15367,7 +15367,7 @@
         <v>1878</v>
       </c>
       <c r="B1878">
-        <v>576.6199062055449</v>
+        <v>576.6199062055448</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -15399,7 +15399,7 @@
         <v>1882</v>
       </c>
       <c r="B1882">
-        <v>422.4792813429219</v>
+        <v>422.4792813429218</v>
       </c>
     </row>
     <row r="1883" spans="1:2">
@@ -15407,7 +15407,7 @@
         <v>1883</v>
       </c>
       <c r="B1883">
-        <v>399.588645490135</v>
+        <v>399.5886454901349</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -15543,7 +15543,7 @@
         <v>1900</v>
       </c>
       <c r="B1900">
-        <v>41.40829426207937</v>
+        <v>41.40829426207936</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>223.1354087842769</v>
+        <v>223.1354087842768</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>95.72814671839566</v>
+        <v>95.72814671839565</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>41.63118328604144</v>
+        <v>41.63118328604143</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>42.98008113378635</v>
+        <v>42.98008113378634</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>48.32836382542111</v>
+        <v>48.3283638254211</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15783,7 +15783,7 @@
         <v>1930</v>
       </c>
       <c r="B1930">
-        <v>177.9869360653807</v>
+        <v>177.9869360653806</v>
       </c>
     </row>
     <row r="1931" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>50.5620809450486</v>
+        <v>50.56208094504859</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15871,7 +15871,7 @@
         <v>1941</v>
       </c>
       <c r="B1941">
-        <v>24.63546358856109</v>
+        <v>24.63546358856108</v>
       </c>
     </row>
     <row r="1942" spans="1:2">
@@ -15895,7 +15895,7 @@
         <v>1944</v>
       </c>
       <c r="B1944">
-        <v>29.95742850092406</v>
+        <v>29.95742850092405</v>
       </c>
     </row>
     <row r="1945" spans="1:2">
@@ -15935,7 +15935,7 @@
         <v>1949</v>
       </c>
       <c r="B1949">
-        <v>728.4312903741991</v>
+        <v>728.431290374199</v>
       </c>
     </row>
     <row r="1950" spans="1:2">
@@ -15951,7 +15951,7 @@
         <v>1951</v>
       </c>
       <c r="B1951">
-        <v>555.4194403398218</v>
+        <v>555.4194403398217</v>
       </c>
     </row>
     <row r="1952" spans="1:2">
@@ -16071,7 +16071,7 @@
         <v>1966</v>
       </c>
       <c r="B1966">
-        <v>43.83239325913166</v>
+        <v>43.83239325913165</v>
       </c>
     </row>
     <row r="1967" spans="1:2">
@@ -16135,7 +16135,7 @@
         <v>1974</v>
       </c>
       <c r="B1974">
-        <v>80.26216376692413</v>
+        <v>80.26216376692412</v>
       </c>
     </row>
     <row r="1975" spans="1:2">
@@ -16247,7 +16247,7 @@
         <v>1988</v>
       </c>
       <c r="B1988">
-        <v>43.1732325325265</v>
+        <v>43.17323253252648</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -16271,7 +16271,7 @@
         <v>1991</v>
       </c>
       <c r="B1991">
-        <v>66.29061744792568</v>
+        <v>66.29061744792567</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -16311,7 +16311,7 @@
         <v>1996</v>
       </c>
       <c r="B1996">
-        <v>97.67237119674388</v>
+        <v>97.67237119674385</v>
       </c>
     </row>
     <row r="1997" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>86.64586643814943</v>
+        <v>86.6458664381494</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>85.47182385727208</v>
+        <v>85.47182385727206</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>976.2064415842015</v>
+        <v>976.2064415842012</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16615,7 +16615,7 @@
         <v>2034</v>
       </c>
       <c r="B2034">
-        <v>584.8813443285773</v>
+        <v>584.8813443285771</v>
       </c>
     </row>
     <row r="2035" spans="1:2">
@@ -16695,7 +16695,7 @@
         <v>2044</v>
       </c>
       <c r="B2044">
-        <v>43.49062846739673</v>
+        <v>43.49062846739672</v>
       </c>
     </row>
     <row r="2045" spans="1:2">
@@ -16791,7 +16791,7 @@
         <v>2056</v>
       </c>
       <c r="B2056">
-        <v>458.4087942412714</v>
+        <v>458.4087942412713</v>
       </c>
     </row>
     <row r="2057" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>34.48391069304854</v>
+        <v>34.48391069304853</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16839,7 +16839,7 @@
         <v>2062</v>
       </c>
       <c r="B2062">
-        <v>38.18803555068928</v>
+        <v>38.18803555068927</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -17111,7 +17111,7 @@
         <v>2096</v>
       </c>
       <c r="B2096">
-        <v>344.5043318830225</v>
+        <v>344.5043318830224</v>
       </c>
     </row>
     <row r="2097" spans="1:2">
@@ -17207,7 +17207,7 @@
         <v>2108</v>
       </c>
       <c r="B2108">
-        <v>11.52970773197599</v>
+        <v>11.52970773197598</v>
       </c>
     </row>
     <row r="2109" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>30.95592152964326</v>
+        <v>30.95592152964325</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>815.6568513268206</v>
+        <v>815.6568513268205</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17351,7 +17351,7 @@
         <v>2126</v>
       </c>
       <c r="B2126">
-        <v>6.411368577274921</v>
+        <v>6.41136857727492</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>20.78327924218864</v>
+        <v>20.78327924218863</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17455,7 +17455,7 @@
         <v>2139</v>
       </c>
       <c r="B2139">
-        <v>36.36846239107283</v>
+        <v>36.36846239107282</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -17815,7 +17815,7 @@
         <v>2184</v>
       </c>
       <c r="B2184">
-        <v>43.02338531045895</v>
+        <v>43.02338531045894</v>
       </c>
     </row>
     <row r="2185" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>7.846420225184064</v>
+        <v>7.846420225184063</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>7.048006794558961</v>
+        <v>7.04800679455896</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18415,7 +18415,7 @@
         <v>2259</v>
       </c>
       <c r="B2259">
-        <v>3.798640267609027</v>
+        <v>3.798640267609026</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -19287,7 +19287,7 @@
         <v>2368</v>
       </c>
       <c r="B2368">
-        <v>89.85203429400067</v>
+        <v>89.85203429400066</v>
       </c>
     </row>
     <row r="2369" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>73.22667110571601</v>
+        <v>73.22667110571599</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19559,7 +19559,7 @@
         <v>2402</v>
       </c>
       <c r="B2402">
-        <v>49.45885311924299</v>
+        <v>49.45885311924298</v>
       </c>
     </row>
     <row r="2403" spans="1:2">
@@ -19583,7 +19583,7 @@
         <v>2405</v>
       </c>
       <c r="B2405">
-        <v>832.8586559410483</v>
+        <v>832.8586559410481</v>
       </c>
     </row>
     <row r="2406" spans="1:2">
@@ -19615,7 +19615,7 @@
         <v>2409</v>
       </c>
       <c r="B2409">
-        <v>435.7746541615209</v>
+        <v>435.7746541615207</v>
       </c>
     </row>
     <row r="2410" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>14.32153175336783</v>
+        <v>14.32153175336782</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19695,7 +19695,7 @@
         <v>2419</v>
       </c>
       <c r="B2419">
-        <v>6.388626264674801</v>
+        <v>6.3886262646748</v>
       </c>
     </row>
     <row r="2420" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>32.6850406577452</v>
+        <v>32.68504065774519</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>42.38742232884798</v>
+        <v>42.38742232884797</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>5.230790512235424</v>
+        <v>5.230790512235423</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>6.657167257400191</v>
+        <v>6.65716725740019</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -19991,7 +19991,7 @@
         <v>2456</v>
       </c>
       <c r="B2456">
-        <v>69.14131944098459</v>
+        <v>69.14131944098457</v>
       </c>
     </row>
     <row r="2457" spans="1:2">
@@ -20039,7 +20039,7 @@
         <v>2462</v>
       </c>
       <c r="B2462">
-        <v>0.9007186688010055</v>
+        <v>0.9007186688010054</v>
       </c>
     </row>
     <row r="2463" spans="1:2">
@@ -20055,7 +20055,7 @@
         <v>2464</v>
       </c>
       <c r="B2464">
-        <v>4.895722393733908</v>
+        <v>4.895722393733907</v>
       </c>
     </row>
     <row r="2465" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>40.22858222195912</v>
+        <v>40.22858222195911</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20167,7 +20167,7 @@
         <v>2478</v>
       </c>
       <c r="B2478">
-        <v>48.91121471497964</v>
+        <v>48.91121471497962</v>
       </c>
     </row>
     <row r="2479" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>31.2475272131113</v>
+        <v>31.24752721311129</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20327,7 +20327,7 @@
         <v>2498</v>
       </c>
       <c r="B2498">
-        <v>43.58212231495642</v>
+        <v>43.58212231495641</v>
       </c>
     </row>
     <row r="2499" spans="1:2">
@@ -20335,7 +20335,7 @@
         <v>2499</v>
       </c>
       <c r="B2499">
-        <v>46.42881216549605</v>
+        <v>46.42881216549604</v>
       </c>
     </row>
     <row r="2500" spans="1:2">
@@ -20367,7 +20367,7 @@
         <v>2503</v>
       </c>
       <c r="B2503">
-        <v>49.47115331073561</v>
+        <v>49.4711533107356</v>
       </c>
     </row>
     <row r="2504" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>16.68394808891307</v>
+        <v>16.68394808891306</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20855,7 +20855,7 @@
         <v>2564</v>
       </c>
       <c r="B2564">
-        <v>27.71965527812149</v>
+        <v>27.71965527812148</v>
       </c>
     </row>
     <row r="2565" spans="1:2">
@@ -20887,7 +20887,7 @@
         <v>2568</v>
       </c>
       <c r="B2568">
-        <v>41.07449221046487</v>
+        <v>41.07449221046486</v>
       </c>
     </row>
     <row r="2569" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>41.97951404132655</v>
+        <v>41.97951404132653</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -20927,7 +20927,7 @@
         <v>2573</v>
       </c>
       <c r="B2573">
-        <v>886.6521381583768</v>
+        <v>886.6521381583767</v>
       </c>
     </row>
     <row r="2574" spans="1:2">
@@ -21031,7 +21031,7 @@
         <v>2586</v>
       </c>
       <c r="B2586">
-        <v>182.4188149262253</v>
+        <v>182.4188149262252</v>
       </c>
     </row>
     <row r="2587" spans="1:2">
@@ -21063,7 +21063,7 @@
         <v>2590</v>
       </c>
       <c r="B2590">
-        <v>30.511332763994</v>
+        <v>30.51133276399399</v>
       </c>
     </row>
     <row r="2591" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>96.53164200083116</v>
+        <v>96.53164200083114</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21223,7 +21223,7 @@
         <v>2610</v>
       </c>
       <c r="B2610">
-        <v>98.78545500157966</v>
+        <v>98.78545500157963</v>
       </c>
     </row>
     <row r="2611" spans="1:2">
@@ -21311,7 +21311,7 @@
         <v>2621</v>
       </c>
       <c r="B2621">
-        <v>665.9629054124946</v>
+        <v>665.9629054124945</v>
       </c>
     </row>
     <row r="2622" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>37.87239804205101</v>
+        <v>37.872398042051</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21575,7 +21575,7 @@
         <v>2654</v>
       </c>
       <c r="B2654">
-        <v>6.918586623886111</v>
+        <v>6.91858662388611</v>
       </c>
     </row>
     <row r="2655" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>26.09753638623481</v>
+        <v>26.0975363862348</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>31.72381454230217</v>
+        <v>31.72381454230216</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>62.8572286850899</v>
+        <v>62.85722868508989</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21719,7 +21719,7 @@
         <v>2672</v>
       </c>
       <c r="B2672">
-        <v>37.18426724327417</v>
+        <v>37.18426724327416</v>
       </c>
     </row>
     <row r="2673" spans="1:2">
@@ -21895,7 +21895,7 @@
         <v>2694</v>
       </c>
       <c r="B2694">
-        <v>494.046672149049</v>
+        <v>494.0466721490489</v>
       </c>
     </row>
     <row r="2695" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>242.7028535154751</v>
+        <v>242.702853515475</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -21975,7 +21975,7 @@
         <v>2704</v>
       </c>
       <c r="B2704">
-        <v>297.2879792224357</v>
+        <v>297.2879792224356</v>
       </c>
     </row>
     <row r="2705" spans="1:2">
@@ -22031,7 +22031,7 @@
         <v>2711</v>
       </c>
       <c r="B2711">
-        <v>36.18577421455497</v>
+        <v>36.18577421455496</v>
       </c>
     </row>
     <row r="2712" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>152.1876873822954</v>
+        <v>152.1876873822953</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>115.1528248238204</v>
+        <v>115.1528248238203</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>32.65192363037647</v>
+        <v>32.65192363037646</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -22783,7 +22783,7 @@
         <v>2805</v>
       </c>
       <c r="B2805">
-        <v>20.18550224463109</v>
+        <v>20.18550224463108</v>
       </c>
     </row>
     <row r="2806" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>4.177698349013611</v>
+        <v>4.17769834901361</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -23047,7 +23047,7 @@
         <v>2838</v>
       </c>
       <c r="B2838">
-        <v>51.38502442160966</v>
+        <v>51.38502442160965</v>
       </c>
     </row>
     <row r="2839" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>17.59252692297097</v>
+        <v>17.59252692297096</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>4.33018321042911</v>
+        <v>4.330183210429109</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>99.87831690474782</v>
+        <v>99.87831690474781</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>6.98842545239911</v>
+        <v>6.988425452399109</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -23895,7 +23895,7 @@
         <v>2944</v>
       </c>
       <c r="B2944">
-        <v>0.2246615176038981</v>
+        <v>0.224661517603898</v>
       </c>
     </row>
     <row r="2945" spans="1:2">
@@ -23903,7 +23903,7 @@
         <v>2945</v>
       </c>
       <c r="B2945">
-        <v>1.775849305216489</v>
+        <v>1.775849305216488</v>
       </c>
     </row>
     <row r="2946" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>7.228919546724609</v>
+        <v>7.228919546724608</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -24007,7 +24007,7 @@
         <v>2958</v>
       </c>
       <c r="B2958">
-        <v>453.7974093692467</v>
+        <v>453.7974093692466</v>
       </c>
     </row>
     <row r="2959" spans="1:2">
@@ -24167,7 +24167,7 @@
         <v>2978</v>
       </c>
       <c r="B2978">
-        <v>20.7320797317345</v>
+        <v>20.73207973173449</v>
       </c>
     </row>
     <row r="2979" spans="1:2">
@@ -24791,7 +24791,7 @@
         <v>3056</v>
       </c>
       <c r="B3056">
-        <v>23.55347462092727</v>
+        <v>23.55347462092726</v>
       </c>
     </row>
     <row r="3057" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>2.255375069384569</v>
+        <v>2.255375069384568</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>194.323389823753</v>
+        <v>194.3233898237529</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>147.9979438135928</v>
+        <v>147.9979438135927</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>11.02287067771506</v>
+        <v>11.02287067771505</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25927,7 +25927,7 @@
         <v>3198</v>
       </c>
       <c r="B3198">
-        <v>93.59419977245966</v>
+        <v>93.59419977245965</v>
       </c>
     </row>
     <row r="3199" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>7.847826966169639</v>
+        <v>7.847826966169638</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -25999,7 +25999,7 @@
         <v>3207</v>
       </c>
       <c r="B3207">
-        <v>4.433109759206974</v>
+        <v>4.433109759206973</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>6.640051908742368</v>
+        <v>6.640051908742367</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>93.4583027318324</v>
+        <v>93.45830273183238</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>7.756388802107299</v>
+        <v>7.756388802107298</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26559,7 +26559,7 @@
         <v>3277</v>
       </c>
       <c r="B3277">
-        <v>0.1571540692034505</v>
+        <v>0.1571540692034504</v>
       </c>
     </row>
     <row r="3278" spans="1:2">
@@ -26775,7 +26775,7 @@
         <v>3304</v>
       </c>
       <c r="B3304">
-        <v>47.00800845920247</v>
+        <v>47.00800845920246</v>
       </c>
     </row>
     <row r="3305" spans="1:2">
@@ -27079,7 +27079,7 @@
         <v>3342</v>
       </c>
       <c r="B3342">
-        <v>50.89325121873592</v>
+        <v>50.89325121873591</v>
       </c>
     </row>
     <row r="3343" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>3.120327348627344</v>
+        <v>3.120327348627343</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27119,7 +27119,7 @@
         <v>3347</v>
       </c>
       <c r="B3347">
-        <v>1.132552513934063</v>
+        <v>1.132552513934062</v>
       </c>
     </row>
     <row r="3348" spans="1:2">
@@ -27311,7 +27311,7 @@
         <v>3371</v>
       </c>
       <c r="B3371">
-        <v>43.60955669488551</v>
+        <v>43.6095566948855</v>
       </c>
     </row>
     <row r="3372" spans="1:2">
@@ -27343,7 +27343,7 @@
         <v>3375</v>
       </c>
       <c r="B3375">
-        <v>5.092519596195001</v>
+        <v>5.092519596195</v>
       </c>
     </row>
     <row r="3376" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>32.31840878837986</v>
+        <v>32.31840878837985</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>6.813901648876279</v>
+        <v>6.813901648876278</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -28055,7 +28055,7 @@
         <v>3464</v>
       </c>
       <c r="B3464">
-        <v>8.707023330213104</v>
+        <v>8.707023330213103</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -28063,7 +28063,7 @@
         <v>3465</v>
       </c>
       <c r="B3465">
-        <v>1.865678509276578</v>
+        <v>1.865678509276577</v>
       </c>
     </row>
     <row r="3466" spans="1:2">
@@ -29007,7 +29007,7 @@
         <v>3583</v>
       </c>
       <c r="B3583">
-        <v>7.547898065203618</v>
+        <v>7.547898065203617</v>
       </c>
     </row>
     <row r="3584" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>5.220239954843615</v>
+        <v>5.220239954843614</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>6.098192865361408</v>
+        <v>6.098192865361407</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>0.620287784037124</v>
+        <v>0.6202877840371239</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29383,7 +29383,7 @@
         <v>3630</v>
       </c>
       <c r="B3630">
-        <v>6.505590916204543</v>
+        <v>6.505590916204542</v>
       </c>
     </row>
     <row r="3631" spans="1:2">
@@ -29391,7 +29391,7 @@
         <v>3631</v>
       </c>
       <c r="B3631">
-        <v>6.509664603641936</v>
+        <v>6.509664603641935</v>
       </c>
     </row>
     <row r="3632" spans="1:2">
@@ -29431,7 +29431,7 @@
         <v>3636</v>
       </c>
       <c r="B3636">
-        <v>0.6587240507575594</v>
+        <v>0.6587240507575592</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -29751,7 +29751,7 @@
         <v>3676</v>
       </c>
       <c r="B3676">
-        <v>5.471372527872521</v>
+        <v>5.47137252787252</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>3.751866129838677</v>
+        <v>3.751866129838676</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>0.8118829755619785</v>
+        <v>0.8118829755619784</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -31359,7 +31359,7 @@
         <v>3877</v>
       </c>
       <c r="B3877">
-        <v>1.606465967711778</v>
+        <v>1.606465967711777</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>0.3265778505114969</v>
+        <v>0.3265778505114968</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>0.496940045285337</v>
+        <v>0.4969400452853369</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>3.719892079520724</v>
+        <v>3.719892079520723</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>3.101863873191679</v>
+        <v>3.101863873191678</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32655,7 +32655,7 @@
         <v>4039</v>
       </c>
       <c r="B4039">
-        <v>0.4594914279651902</v>
+        <v>0.4594914279651901</v>
       </c>
     </row>
     <row r="4040" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>3.190605783698334</v>
+        <v>3.190605783698333</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -34199,7 +34199,7 @@
         <v>4232</v>
       </c>
       <c r="B4232">
-        <v>3.966452744346514</v>
+        <v>3.966452744346513</v>
       </c>
     </row>
     <row r="4233" spans="1:2">
@@ -34375,7 +34375,7 @@
         <v>4254</v>
       </c>
       <c r="B4254">
-        <v>0.2924098703981253</v>
+        <v>0.2924098703981252</v>
       </c>
     </row>
     <row r="4255" spans="1:2">
@@ -35343,7 +35343,7 @@
         <v>4375</v>
       </c>
       <c r="B4375">
-        <v>0.4255831087920726</v>
+        <v>0.4255831087920725</v>
       </c>
     </row>
     <row r="4376" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>2.89914370503924</v>
+        <v>2.899143705039239</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -35911,7 +35911,7 @@
         <v>4446</v>
       </c>
       <c r="B4446">
-        <v>7.844691106055962</v>
+        <v>7.844691106055961</v>
       </c>
     </row>
     <row r="4447" spans="1:2">
@@ -35943,7 +35943,7 @@
         <v>4450</v>
       </c>
       <c r="B4450">
-        <v>0.57645021807416</v>
+        <v>0.5764502180741599</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
@@ -37271,7 +37271,7 @@
         <v>4616</v>
       </c>
       <c r="B4616">
-        <v>6.825888254357528</v>
+        <v>6.825888254357527</v>
       </c>
     </row>
     <row r="4617" spans="1:2">
@@ -37455,7 +37455,7 @@
         <v>4639</v>
       </c>
       <c r="B4639">
-        <v>9.646814229888442</v>
+        <v>9.64681422988844</v>
       </c>
     </row>
     <row r="4640" spans="1:2">
@@ -37463,7 +37463,7 @@
         <v>4640</v>
       </c>
       <c r="B4640">
-        <v>7.178276871243929</v>
+        <v>7.178276871243928</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -38223,7 +38223,7 @@
         <v>4735</v>
       </c>
       <c r="B4735">
-        <v>3.292418662529286</v>
+        <v>3.292418662529285</v>
       </c>
     </row>
     <row r="4736" spans="1:2">
@@ -38431,7 +38431,7 @@
         <v>4761</v>
       </c>
       <c r="B4761">
-        <v>0.7480843411557903</v>
+        <v>0.7480843411557901</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -39759,7 +39759,7 @@
         <v>4927</v>
       </c>
       <c r="B4927">
-        <v>0.0561922686687717</v>
+        <v>0.0561922686687716</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39783,7 +39783,7 @@
         <v>4930</v>
       </c>
       <c r="B4930">
-        <v>0.9528208380542194</v>
+        <v>0.9528208380542192</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>0.3919385535537501</v>
+        <v>0.39193855355375</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>25.39182132513829</v>
+        <v>25.39182132513828</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -40959,7 +40959,7 @@
         <v>5077</v>
       </c>
       <c r="B5077">
-        <v>0.6782748197466577</v>
+        <v>0.6782748197466576</v>
       </c>
     </row>
     <row r="5078" spans="1:2">
@@ -41303,7 +41303,7 @@
         <v>5120</v>
       </c>
       <c r="B5120">
-        <v>4.903547390466165</v>
+        <v>4.903547390466164</v>
       </c>
     </row>
     <row r="5121" spans="1:2">
@@ -41487,7 +41487,7 @@
         <v>5143</v>
       </c>
       <c r="B5143">
-        <v>3.740113981188357</v>
+        <v>3.740113981188356</v>
       </c>
     </row>
     <row r="5144" spans="1:2">
@@ -41519,7 +41519,7 @@
         <v>5147</v>
       </c>
       <c r="B5147">
-        <v>1.792507463054</v>
+        <v>1.792507463053999</v>
       </c>
     </row>
     <row r="5148" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>15.06569773473672</v>
+        <v>15.06569773473671</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>6.883271563727419</v>
+        <v>6.883271563727418</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42463,7 +42463,7 @@
         <v>5265</v>
       </c>
       <c r="B5265">
-        <v>5.303794507965964</v>
+        <v>5.303794507965963</v>
       </c>
     </row>
     <row r="5266" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>33.05987851619306</v>
+        <v>33.05987851619305</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>18.93353207457369</v>
+        <v>18.93353207457368</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -42839,7 +42839,7 @@
         <v>5312</v>
       </c>
       <c r="B5312">
-        <v>7.559415757023008</v>
+        <v>7.559415757023007</v>
       </c>
     </row>
     <row r="5313" spans="1:2">
@@ -43407,7 +43407,7 @@
         <v>5383</v>
       </c>
       <c r="B5383">
-        <v>0.4002764246036654</v>
+        <v>0.4002764246036653</v>
       </c>
     </row>
     <row r="5384" spans="1:2">
@@ -44159,7 +44159,7 @@
         <v>5477</v>
       </c>
       <c r="B5477">
-        <v>52.77887028148302</v>
+        <v>52.77887028148301</v>
       </c>
     </row>
     <row r="5478" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>13.59392428568331</v>
+        <v>13.5939242856833</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44263,7 +44263,7 @@
         <v>5490</v>
       </c>
       <c r="B5490">
-        <v>0.5551791220881195</v>
+        <v>0.5551791220881194</v>
       </c>
     </row>
     <row r="5491" spans="1:2">
@@ -44743,7 +44743,7 @@
         <v>5550</v>
       </c>
       <c r="B5550">
-        <v>0.6804406147223652</v>
+        <v>0.6804406147223651</v>
       </c>
     </row>
     <row r="5551" spans="1:2">
@@ -44751,7 +44751,7 @@
         <v>5551</v>
       </c>
       <c r="B5551">
-        <v>2.063583520263811</v>
+        <v>2.06358352026381</v>
       </c>
     </row>
     <row r="5552" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>2.022749932447126</v>
+        <v>2.022749932447125</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>0.2325202175056021</v>
+        <v>0.232520217505602</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>0.0359967433946184</v>
+        <v>0.0359967433946183</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>4.598020832661713</v>
+        <v>4.598020832661712</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>0.4927579215636395</v>
+        <v>0.4927579215636394</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -47879,7 +47879,7 @@
         <v>5942</v>
       </c>
       <c r="B5942">
-        <v>0.1108265716960197</v>
+        <v>0.1108265716960196</v>
       </c>
     </row>
     <row r="5943" spans="1:2">
@@ -48023,7 +48023,7 @@
         <v>5960</v>
       </c>
       <c r="B5960">
-        <v>39.28089745385744</v>
+        <v>39.28089745385743</v>
       </c>
     </row>
     <row r="5961" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>5.993800961390236</v>
+        <v>5.993800961390235</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>80.74546721678055</v>
+        <v>80.74546721678054</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>3.25455388433424</v>
+        <v>3.254553884334239</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49399,7 +49399,7 @@
         <v>6132</v>
       </c>
       <c r="B6132">
-        <v>4.659448522365131</v>
+        <v>4.65944852236513</v>
       </c>
     </row>
     <row r="6133" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>6.826650239058047</v>
+        <v>6.826650239058046</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>4.761701007754074</v>
+        <v>4.761701007754073</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51823,7 +51823,7 @@
         <v>6435</v>
       </c>
       <c r="B6435">
-        <v>6.644799659568682</v>
+        <v>6.644799659568681</v>
       </c>
     </row>
     <row r="6436" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>377.5950121653789</v>
+        <v>377.5950121653788</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>359.7210784310853</v>
+        <v>359.7210784310852</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -51935,7 +51935,7 @@
         <v>6449</v>
       </c>
       <c r="B6449">
-        <v>0.3101189809802758</v>
+        <v>0.3101189809802757</v>
       </c>
     </row>
     <row r="6450" spans="1:2">
@@ -52015,7 +52015,7 @@
         <v>6459</v>
       </c>
       <c r="B6459">
-        <v>6.785649600749324</v>
+        <v>6.785649600749323</v>
       </c>
     </row>
     <row r="6460" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>308.5996127945438</v>
+        <v>308.5996127945437</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52063,7 +52063,7 @@
         <v>6465</v>
       </c>
       <c r="B6465">
-        <v>63.3411505148379</v>
+        <v>63.34115051483789</v>
       </c>
     </row>
     <row r="6466" spans="1:2">
@@ -52135,7 +52135,7 @@
         <v>6474</v>
       </c>
       <c r="B6474">
-        <v>27.34496395519296</v>
+        <v>27.34496395519295</v>
       </c>
     </row>
     <row r="6475" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>9.792030929545138</v>
+        <v>9.792030929545136</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -53223,7 +53223,7 @@
         <v>6610</v>
       </c>
       <c r="B6610">
-        <v>4.152230475753941</v>
+        <v>4.15223047575394</v>
       </c>
     </row>
     <row r="6611" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>9.056715693543822</v>
+        <v>9.05671569354382</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>4.364355293537022</v>
+        <v>4.364355293537021</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>3.751543751696149</v>
+        <v>3.751543751696148</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53591,7 +53591,7 @@
         <v>6656</v>
       </c>
       <c r="B6656">
-        <v>55.2066707657536</v>
+        <v>55.20667076575359</v>
       </c>
     </row>
     <row r="6657" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>4.973767211329424</v>
+        <v>4.973767211329423</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53967,7 +53967,7 @@
         <v>6703</v>
       </c>
       <c r="B6703">
-        <v>47.43354760733874</v>
+        <v>47.43354760733873</v>
       </c>
     </row>
     <row r="6704" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>6.814868783303861</v>
+        <v>6.81486878330386</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>32.38464284311732</v>
+        <v>32.38464284311731</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>67.41193654894786</v>
+        <v>67.41193654894785</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54527,7 +54527,7 @@
         <v>6773</v>
       </c>
       <c r="B6773">
-        <v>664.2710063063026</v>
+        <v>664.2710063063025</v>
       </c>
     </row>
     <row r="6774" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>544.2349702913889</v>
+        <v>544.2349702913888</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>269.8527786944389</v>
+        <v>269.8527786944388</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -54631,7 +54631,7 @@
         <v>6786</v>
       </c>
       <c r="B6786">
-        <v>84.57766411831631</v>
+        <v>84.57766411831629</v>
       </c>
     </row>
     <row r="6787" spans="1:2">
@@ -54679,7 +54679,7 @@
         <v>6792</v>
       </c>
       <c r="B6792">
-        <v>2.545333693615331</v>
+        <v>2.54533369361533</v>
       </c>
     </row>
     <row r="6793" spans="1:2">
@@ -54775,7 +54775,7 @@
         <v>6804</v>
       </c>
       <c r="B6804">
-        <v>7.28486680800506</v>
+        <v>7.284866808005059</v>
       </c>
     </row>
     <row r="6805" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>44.71033151609752</v>
+        <v>44.71033151609751</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>8.13108012503583</v>
+        <v>8.131080125035828</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>2.696871935575953</v>
+        <v>2.696871935575952</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55007,7 +55007,7 @@
         <v>6833</v>
       </c>
       <c r="B6833">
-        <v>3.558644394049252</v>
+        <v>3.558644394049251</v>
       </c>
     </row>
     <row r="6834" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>9.41262116289416</v>
+        <v>9.412621162894158</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55671,7 +55671,7 @@
         <v>6916</v>
       </c>
       <c r="B6916">
-        <v>7.168664141175837</v>
+        <v>7.168664141175836</v>
       </c>
     </row>
     <row r="6917" spans="1:2">
@@ -55695,7 +55695,7 @@
         <v>6919</v>
       </c>
       <c r="B6919">
-        <v>242.0677392675921</v>
+        <v>242.067739267592</v>
       </c>
     </row>
     <row r="6920" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>85.06592046872611</v>
+        <v>85.06592046872609</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -55959,7 +55959,7 @@
         <v>6952</v>
       </c>
       <c r="B6952">
-        <v>38.09630431558828</v>
+        <v>38.09630431558827</v>
       </c>
     </row>
     <row r="6953" spans="1:2">
@@ -56303,7 +56303,7 @@
         <v>6995</v>
       </c>
       <c r="B6995">
-        <v>81.60709607044491</v>
+        <v>81.6070960704449</v>
       </c>
     </row>
     <row r="6996" spans="1:2">
@@ -56343,7 +56343,7 @@
         <v>7000</v>
       </c>
       <c r="B7000">
-        <v>19.03042135995513</v>
+        <v>19.03042135995512</v>
       </c>
     </row>
     <row r="7001" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>119.3980203637481</v>
+        <v>119.398020363748</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>21.64904039749812</v>
+        <v>21.64904039749811</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>6.510455895446321</v>
+        <v>6.51045589544632</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>4.249061146927649</v>
+        <v>4.249061146927648</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>9.109556401814462</v>
+        <v>9.10955640181446</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>45.97141619545729</v>
+        <v>45.97141619545728</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>2.004324556246487</v>
+        <v>2.004324556246486</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57863,7 +57863,7 @@
         <v>7190</v>
       </c>
       <c r="B7190">
-        <v>3.855115056759069</v>
+        <v>3.855115056759068</v>
       </c>
     </row>
     <row r="7191" spans="1:2">
@@ -57975,7 +57975,7 @@
         <v>7204</v>
       </c>
       <c r="B7204">
-        <v>51.73295835870841</v>
+        <v>51.7329583587084</v>
       </c>
     </row>
     <row r="7205" spans="1:2">
@@ -58007,7 +58007,7 @@
         <v>7208</v>
       </c>
       <c r="B7208">
-        <v>54.78605521106684</v>
+        <v>54.78605521106683</v>
       </c>
     </row>
     <row r="7209" spans="1:2">
@@ -58199,7 +58199,7 @@
         <v>7232</v>
       </c>
       <c r="B7232">
-        <v>427.691315308683</v>
+        <v>427.6913153086829</v>
       </c>
     </row>
     <row r="7233" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>107.2839289806814</v>
+        <v>107.2839289806813</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>65.83430584072997</v>
+        <v>65.83430584072995</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>78.279567497484</v>
+        <v>78.27956749748398</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58319,7 +58319,7 @@
         <v>7247</v>
       </c>
       <c r="B7247">
-        <v>27.78817528696051</v>
+        <v>27.7881752869605</v>
       </c>
     </row>
     <row r="7248" spans="1:2">
@@ -58751,7 +58751,7 @@
         <v>7301</v>
       </c>
       <c r="B7301">
-        <v>744.4121610413636</v>
+        <v>744.4121610413634</v>
       </c>
     </row>
     <row r="7302" spans="1:2">
@@ -58839,7 +58839,7 @@
         <v>7312</v>
       </c>
       <c r="B7312">
-        <v>61.02002788864005</v>
+        <v>61.02002788864004</v>
       </c>
     </row>
     <row r="7313" spans="1:2">
@@ -58863,7 +58863,7 @@
         <v>7315</v>
       </c>
       <c r="B7315">
-        <v>9.849502160226628</v>
+        <v>9.849502160226626</v>
       </c>
     </row>
     <row r="7316" spans="1:2">
@@ -59007,7 +59007,7 @@
         <v>7333</v>
       </c>
       <c r="B7333">
-        <v>35.07503497802847</v>
+        <v>35.07503497802846</v>
       </c>
     </row>
     <row r="7334" spans="1:2">
@@ -59039,7 +59039,7 @@
         <v>7337</v>
       </c>
       <c r="B7337">
-        <v>84.13659220513098</v>
+        <v>84.13659220513097</v>
       </c>
     </row>
     <row r="7338" spans="1:2">
@@ -59103,7 +59103,7 @@
         <v>7345</v>
       </c>
       <c r="B7345">
-        <v>30.69626058938931</v>
+        <v>30.6962605893893</v>
       </c>
     </row>
     <row r="7346" spans="1:2">
@@ -59151,7 +59151,7 @@
         <v>7351</v>
       </c>
       <c r="B7351">
-        <v>54.22390979038974</v>
+        <v>54.22390979038973</v>
       </c>
     </row>
     <row r="7352" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>6.480474728191266</v>
+        <v>6.480474728191265</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>18.36315721913098</v>
+        <v>18.36315721913097</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>39.96375297393837</v>
+        <v>39.96375297393836</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59471,7 +59471,7 @@
         <v>7391</v>
       </c>
       <c r="B7391">
-        <v>7.165704123685358</v>
+        <v>7.165704123685357</v>
       </c>
     </row>
     <row r="7392" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>523.2434640762314</v>
+        <v>523.2434640762312</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>81.58130581904271</v>
+        <v>81.5813058190427</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>285.8491235124447</v>
+        <v>285.8491235124446</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>271.7804827583378</v>
+        <v>271.7804827583377</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -59847,7 +59847,7 @@
         <v>7438</v>
       </c>
       <c r="B7438">
-        <v>49.15787561010064</v>
+        <v>49.15787561010063</v>
       </c>
     </row>
     <row r="7439" spans="1:2">
@@ -59871,7 +59871,7 @@
         <v>7441</v>
       </c>
       <c r="B7441">
-        <v>55.34681733644146</v>
+        <v>55.34681733644145</v>
       </c>
     </row>
     <row r="7442" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>111.5114787133713</v>
+        <v>111.5114787133712</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -60015,7 +60015,7 @@
         <v>7459</v>
       </c>
       <c r="B7459">
-        <v>347.4382367439574</v>
+        <v>347.4382367439573</v>
       </c>
     </row>
     <row r="7460" spans="1:2">
@@ -60071,7 +60071,7 @@
         <v>7466</v>
       </c>
       <c r="B7466">
-        <v>23.79270850978653</v>
+        <v>23.79270850978652</v>
       </c>
     </row>
     <row r="7467" spans="1:2">
@@ -60271,7 +60271,7 @@
         <v>7491</v>
       </c>
       <c r="B7491">
-        <v>12.75407061019149</v>
+        <v>12.75407061019148</v>
       </c>
     </row>
     <row r="7492" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>429.0691301827416</v>
+        <v>429.0691301827415</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>216.718999385137</v>
+        <v>216.7189993851369</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60343,7 +60343,7 @@
         <v>7500</v>
       </c>
       <c r="B7500">
-        <v>235.4172247227695</v>
+        <v>235.4172247227694</v>
       </c>
     </row>
     <row r="7501" spans="1:2">
@@ -60359,7 +60359,7 @@
         <v>7502</v>
       </c>
       <c r="B7502">
-        <v>58.83195951399444</v>
+        <v>58.83195951399443</v>
       </c>
     </row>
     <row r="7503" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>141.7142076736549</v>
+        <v>141.7142076736548</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60487,7 +60487,7 @@
         <v>7518</v>
       </c>
       <c r="B7518">
-        <v>16.03532326614778</v>
+        <v>16.03532326614777</v>
       </c>
     </row>
     <row r="7519" spans="1:2">
@@ -60631,7 +60631,7 @@
         <v>7536</v>
       </c>
       <c r="B7536">
-        <v>24.05647244458174</v>
+        <v>24.05647244458173</v>
       </c>
     </row>
     <row r="7537" spans="1:2">
@@ -60639,7 +60639,7 @@
         <v>7537</v>
       </c>
       <c r="B7537">
-        <v>24.44244700249873</v>
+        <v>24.44244700249872</v>
       </c>
     </row>
     <row r="7538" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>26.6506200503965</v>
+        <v>26.65062005039649</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>27.50266548109663</v>
+        <v>27.50266548109662</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>32.74629250482542</v>
+        <v>32.74629250482541</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60735,7 +60735,7 @@
         <v>7549</v>
       </c>
       <c r="B7549">
-        <v>0.8179817838765211</v>
+        <v>0.817981783876521</v>
       </c>
     </row>
     <row r="7550" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>3.733842260961004</v>
+        <v>3.733842260961003</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>5.250484886033466</v>
+        <v>5.250484886033465</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61303,7 +61303,7 @@
         <v>7620</v>
       </c>
       <c r="B7620">
-        <v>433.0548083872243</v>
+        <v>433.0548083872242</v>
       </c>
     </row>
     <row r="7621" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>155.0221239327086</v>
+        <v>155.0221239327085</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61343,7 +61343,7 @@
         <v>7625</v>
       </c>
       <c r="B7625">
-        <v>311.1743884047031</v>
+        <v>311.1743884047029</v>
       </c>
     </row>
     <row r="7626" spans="1:2">
@@ -61383,7 +61383,7 @@
         <v>7630</v>
       </c>
       <c r="B7630">
-        <v>42.15973426662783</v>
+        <v>42.15973426662782</v>
       </c>
     </row>
     <row r="7631" spans="1:2">
@@ -61463,7 +61463,7 @@
         <v>7640</v>
       </c>
       <c r="B7640">
-        <v>574.1754006720706</v>
+        <v>574.1754006720705</v>
       </c>
     </row>
     <row r="7641" spans="1:2">
@@ -61543,7 +61543,7 @@
         <v>7650</v>
       </c>
       <c r="B7650">
-        <v>465.1491643665476</v>
+        <v>465.1491643665475</v>
       </c>
     </row>
     <row r="7651" spans="1:2">
@@ -61575,7 +61575,7 @@
         <v>7654</v>
       </c>
       <c r="B7654">
-        <v>46.97231944039845</v>
+        <v>46.97231944039844</v>
       </c>
     </row>
     <row r="7655" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>361.510452964736</v>
+        <v>361.5104529647359</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61743,7 +61743,7 @@
         <v>7675</v>
       </c>
       <c r="B7675">
-        <v>536.3572207721719</v>
+        <v>536.3572207721718</v>
       </c>
     </row>
     <row r="7676" spans="1:2">
@@ -61767,7 +61767,7 @@
         <v>7678</v>
       </c>
       <c r="B7678">
-        <v>31.5432358911206</v>
+        <v>31.54323589112059</v>
       </c>
     </row>
     <row r="7679" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>31.72406072197465</v>
+        <v>31.72406072197464</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61831,7 +61831,7 @@
         <v>7686</v>
       </c>
       <c r="B7686">
-        <v>44.87547704638319</v>
+        <v>44.87547704638318</v>
       </c>
     </row>
     <row r="7687" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>44.62044662854009</v>
+        <v>44.62044662854008</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -62063,7 +62063,7 @@
         <v>7715</v>
       </c>
       <c r="B7715">
-        <v>39.84787268525168</v>
+        <v>39.84787268525167</v>
       </c>
     </row>
     <row r="7716" spans="1:2">
@@ -62111,7 +62111,7 @@
         <v>7721</v>
       </c>
       <c r="B7721">
-        <v>37.48070859888013</v>
+        <v>37.48070859888012</v>
       </c>
     </row>
     <row r="7722" spans="1:2">
@@ -62231,7 +62231,7 @@
         <v>7736</v>
       </c>
       <c r="B7736">
-        <v>897.1432021293371</v>
+        <v>897.1432021293369</v>
       </c>
     </row>
     <row r="7737" spans="1:2">
@@ -62263,7 +62263,7 @@
         <v>7740</v>
       </c>
       <c r="B7740">
-        <v>678.6886360532476</v>
+        <v>678.6886360532475</v>
       </c>
     </row>
     <row r="7741" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>662.4982195934402</v>
+        <v>662.4982195934401</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>726.8402077053066</v>
+        <v>726.8402077053065</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>918.1953740494974</v>
+        <v>918.1953740494973</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>770.3448449683514</v>
+        <v>770.3448449683513</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62775,7 +62775,7 @@
         <v>7804</v>
       </c>
       <c r="B7804">
-        <v>126.6014134230053</v>
+        <v>126.6014134230052</v>
       </c>
     </row>
     <row r="7805" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>7.240613081167197</v>
+        <v>7.240613081167196</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -62887,7 +62887,7 @@
         <v>7818</v>
       </c>
       <c r="B7818">
-        <v>59.51979724173262</v>
+        <v>59.51979724173261</v>
       </c>
     </row>
     <row r="7819" spans="1:2">
@@ -62895,7 +62895,7 @@
         <v>7819</v>
       </c>
       <c r="B7819">
-        <v>75.7700001934269</v>
+        <v>75.77000019342688</v>
       </c>
     </row>
     <row r="7820" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>235.7357929417944</v>
+        <v>235.7357929417943</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -63143,7 +63143,7 @@
         <v>7850</v>
       </c>
       <c r="B7850">
-        <v>204.3622451820587</v>
+        <v>204.3622451820586</v>
       </c>
     </row>
     <row r="7851" spans="1:2">
@@ -63247,7 +63247,7 @@
         <v>7863</v>
       </c>
       <c r="B7863">
-        <v>18.98413078939857</v>
+        <v>18.98413078939856</v>
       </c>
     </row>
     <row r="7864" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>143.6074465834072</v>
+        <v>143.6074465834071</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63311,7 +63311,7 @@
         <v>7871</v>
       </c>
       <c r="B7871">
-        <v>193.4008021940471</v>
+        <v>193.400802194047</v>
       </c>
     </row>
     <row r="7872" spans="1:2">
@@ -63415,7 +63415,7 @@
         <v>7884</v>
       </c>
       <c r="B7884">
-        <v>126.765240133617</v>
+        <v>126.7652401336169</v>
       </c>
     </row>
     <row r="7885" spans="1:2">
@@ -63519,7 +63519,7 @@
         <v>7897</v>
       </c>
       <c r="B7897">
-        <v>98.01693481689802</v>
+        <v>98.016934816898</v>
       </c>
     </row>
     <row r="7898" spans="1:2">
@@ -63711,7 +63711,7 @@
         <v>7921</v>
       </c>
       <c r="B7921">
-        <v>31.66267406221664</v>
+        <v>31.66267406221663</v>
       </c>
     </row>
     <row r="7922" spans="1:2">
@@ -63879,7 +63879,7 @@
         <v>7942</v>
       </c>
       <c r="B7942">
-        <v>41.4033179158429</v>
+        <v>41.40331791584289</v>
       </c>
     </row>
     <row r="7943" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>59.67175457527853</v>
+        <v>59.67175457527851</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -64071,7 +64071,7 @@
         <v>7966</v>
       </c>
       <c r="B7966">
-        <v>39.02885636060868</v>
+        <v>39.02885636060867</v>
       </c>
     </row>
     <row r="7967" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>85.61894551868006</v>
+        <v>85.61894551868005</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>601.5573208852387</v>
+        <v>601.5573208852386</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>45.31108904611825</v>
+        <v>45.31108904611824</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64303,7 +64303,7 @@
         <v>7995</v>
       </c>
       <c r="B7995">
-        <v>52.00390253395082</v>
+        <v>52.00390253395081</v>
       </c>
     </row>
     <row r="7996" spans="1:2">
@@ -64423,7 +64423,7 @@
         <v>8010</v>
       </c>
       <c r="B8010">
-        <v>540.9226814124384</v>
+        <v>540.9226814124382</v>
       </c>
     </row>
     <row r="8011" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>90.90887776651735</v>
+        <v>90.90887776651734</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>8.759805424276013</v>
+        <v>8.759805424276012</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64831,7 +64831,7 @@
         <v>8061</v>
       </c>
       <c r="B8061">
-        <v>23.00179476704077</v>
+        <v>23.00179476704076</v>
       </c>
     </row>
     <row r="8062" spans="1:2">
@@ -64863,7 +64863,7 @@
         <v>8065</v>
       </c>
       <c r="B8065">
-        <v>37.70742835438854</v>
+        <v>37.70742835438853</v>
       </c>
     </row>
     <row r="8066" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>36.04937895316198</v>
+        <v>36.04937895316197</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -64919,7 +64919,7 @@
         <v>8072</v>
       </c>
       <c r="B8072">
-        <v>615.4441989811679</v>
+        <v>615.4441989811678</v>
       </c>
     </row>
     <row r="8073" spans="1:2">
@@ -65095,7 +65095,7 @@
         <v>8094</v>
       </c>
       <c r="B8094">
-        <v>403.5565342825709</v>
+        <v>403.5565342825708</v>
       </c>
     </row>
     <row r="8095" spans="1:2">
@@ -65111,7 +65111,7 @@
         <v>8096</v>
       </c>
       <c r="B8096">
-        <v>316.9305087537389</v>
+        <v>316.9305087537388</v>
       </c>
     </row>
     <row r="8097" spans="1:2">
@@ -65319,7 +65319,7 @@
         <v>8122</v>
       </c>
       <c r="B8122">
-        <v>199.2771695902457</v>
+        <v>199.2771695902456</v>
       </c>
     </row>
     <row r="8123" spans="1:2">
@@ -65471,7 +65471,7 @@
         <v>8141</v>
       </c>
       <c r="B8141">
-        <v>5.099377458499676</v>
+        <v>5.099377458499675</v>
       </c>
     </row>
     <row r="8142" spans="1:2">
@@ -65559,7 +65559,7 @@
         <v>8152</v>
       </c>
       <c r="B8152">
-        <v>9.619060402527211</v>
+        <v>9.619060402527207</v>
       </c>
     </row>
     <row r="8153" spans="1:2">
@@ -65695,7 +65695,7 @@
         <v>8169</v>
       </c>
       <c r="B8169">
-        <v>55.98594665755412</v>
+        <v>55.98594665755411</v>
       </c>
     </row>
     <row r="8170" spans="1:2">
@@ -65863,7 +65863,7 @@
         <v>8190</v>
       </c>
       <c r="B8190">
-        <v>8.274391862941227</v>
+        <v>8.274391862941226</v>
       </c>
     </row>
     <row r="8191" spans="1:2">
@@ -65895,7 +65895,7 @@
         <v>8194</v>
       </c>
       <c r="B8194">
-        <v>6.886788416191355</v>
+        <v>6.886788416191354</v>
       </c>
     </row>
     <row r="8195" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>23.96266040510624</v>
+        <v>23.96266040510623</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66119,7 +66119,7 @@
         <v>8222</v>
       </c>
       <c r="B8222">
-        <v>9.36675554534366</v>
+        <v>9.366755545343658</v>
       </c>
     </row>
     <row r="8223" spans="1:2">
@@ -66143,7 +66143,7 @@
         <v>8225</v>
       </c>
       <c r="B8225">
-        <v>16.53346490269163</v>
+        <v>16.53346490269162</v>
       </c>
     </row>
     <row r="8226" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>27.0449559250465</v>
+        <v>27.04495592504649</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>873.4255491125517</v>
+        <v>873.4255491125516</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>627.8671872389837</v>
+        <v>627.8671872389835</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66311,7 +66311,7 @@
         <v>8246</v>
       </c>
       <c r="B8246">
-        <v>151.1303720654065</v>
+        <v>151.1303720654064</v>
       </c>
     </row>
     <row r="8247" spans="1:2">
@@ -66351,7 +66351,7 @@
         <v>8251</v>
       </c>
       <c r="B8251">
-        <v>539.3245650386181</v>
+        <v>539.3245650386179</v>
       </c>
     </row>
     <row r="8252" spans="1:2">
@@ -66415,7 +66415,7 @@
         <v>8259</v>
       </c>
       <c r="B8259">
-        <v>32.16818936609321</v>
+        <v>32.1681893660932</v>
       </c>
     </row>
     <row r="8260" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>477.2430338479466</v>
+        <v>477.2430338479465</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66631,7 +66631,7 @@
         <v>8286</v>
       </c>
       <c r="B8286">
-        <v>1086.786833607746</v>
+        <v>1086.786833607745</v>
       </c>
     </row>
     <row r="8287" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>742.6015681645138</v>
+        <v>742.6015681645137</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>39.76270624141669</v>
+        <v>39.76270624141668</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>44.02322353524561</v>
+        <v>44.0232235352456</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66839,7 +66839,7 @@
         <v>8312</v>
       </c>
       <c r="B8312">
-        <v>692.0107662576763</v>
+        <v>692.0107662576762</v>
       </c>
     </row>
     <row r="8313" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>621.0128417867721</v>
+        <v>621.012841786772</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -66951,7 +66951,7 @@
         <v>8326</v>
       </c>
       <c r="B8326">
-        <v>38.30291939784453</v>
+        <v>38.30291939784452</v>
       </c>
     </row>
     <row r="8327" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>51.32632229256579</v>
+        <v>51.32632229256578</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>825.3531066409312</v>
+        <v>825.3531066409311</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67103,7 +67103,7 @@
         <v>8345</v>
       </c>
       <c r="B8345">
-        <v>367.9465860447779</v>
+        <v>367.9465860447777</v>
       </c>
     </row>
     <row r="8346" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>81.81895712429319</v>
+        <v>81.81895712429318</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67167,7 +67167,7 @@
         <v>8353</v>
       </c>
       <c r="B8353">
-        <v>101.3131927100338</v>
+        <v>101.3131927100337</v>
       </c>
     </row>
     <row r="8354" spans="1:2">
@@ -67279,7 +67279,7 @@
         <v>8367</v>
       </c>
       <c r="B8367">
-        <v>0.5882961494568515</v>
+        <v>0.5882961494568514</v>
       </c>
     </row>
     <row r="8368" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>5.417125078616307</v>
+        <v>5.417125078616306</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>73.3238534621361</v>
+        <v>73.32385346213609</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67471,7 +67471,7 @@
         <v>8391</v>
       </c>
       <c r="B8391">
-        <v>8.131285274762892</v>
+        <v>8.13128527476289</v>
       </c>
     </row>
     <row r="8392" spans="1:2">
@@ -67559,7 +67559,7 @@
         <v>8402</v>
       </c>
       <c r="B8402">
-        <v>86.46650696248869</v>
+        <v>86.46650696248867</v>
       </c>
     </row>
     <row r="8403" spans="1:2">
@@ -67583,7 +67583,7 @@
         <v>8405</v>
       </c>
       <c r="B8405">
-        <v>82.88957493562695</v>
+        <v>82.88957493562694</v>
       </c>
     </row>
     <row r="8406" spans="1:2">
@@ -67687,7 +67687,7 @@
         <v>8418</v>
       </c>
       <c r="B8418">
-        <v>580.097780221339</v>
+        <v>580.0977802213389</v>
       </c>
     </row>
     <row r="8419" spans="1:2">
@@ -67695,7 +67695,7 @@
         <v>8419</v>
       </c>
       <c r="B8419">
-        <v>708.7864455816904</v>
+        <v>708.7864455816903</v>
       </c>
     </row>
     <row r="8420" spans="1:2">
@@ -67711,7 +67711,7 @@
         <v>8421</v>
       </c>
       <c r="B8421">
-        <v>43.92548727456244</v>
+        <v>43.92548727456243</v>
       </c>
     </row>
     <row r="8422" spans="1:2">
@@ -67743,7 +67743,7 @@
         <v>8425</v>
       </c>
       <c r="B8425">
-        <v>66.76380994694829</v>
+        <v>66.76380994694827</v>
       </c>
     </row>
     <row r="8426" spans="1:2">
@@ -67775,7 +67775,7 @@
         <v>8429</v>
       </c>
       <c r="B8429">
-        <v>81.49631521783093</v>
+        <v>81.49631521783091</v>
       </c>
     </row>
     <row r="8430" spans="1:2">
@@ -67831,7 +67831,7 @@
         <v>8436</v>
       </c>
       <c r="B8436">
-        <v>321.556898862943</v>
+        <v>321.5568988629429</v>
       </c>
     </row>
     <row r="8437" spans="1:2">
@@ -67951,7 +67951,7 @@
         <v>8451</v>
       </c>
       <c r="B8451">
-        <v>70.55975396100163</v>
+        <v>70.55975396100162</v>
       </c>
     </row>
     <row r="8452" spans="1:2">
@@ -67959,7 +67959,7 @@
         <v>8452</v>
       </c>
       <c r="B8452">
-        <v>62.53013502955036</v>
+        <v>62.53013502955035</v>
       </c>
     </row>
     <row r="8453" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>60.17844509402013</v>
+        <v>60.17844509402012</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>832.2886327708519</v>
+        <v>832.2886327708518</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>274.4770293850608</v>
+        <v>274.4770293850607</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68247,7 +68247,7 @@
         <v>8488</v>
       </c>
       <c r="B8488">
-        <v>118.9522593139442</v>
+        <v>118.9522593139441</v>
       </c>
     </row>
     <row r="8489" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>30.9852286335094</v>
+        <v>30.98522863350939</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>34.37166448524124</v>
+        <v>34.37166448524123</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>789.2584775193999</v>
+        <v>789.2584775193998</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>464.3253416768705</v>
+        <v>464.3253416768704</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68735,7 +68735,7 @@
         <v>8549</v>
       </c>
       <c r="B8549">
-        <v>309.5384072526876</v>
+        <v>309.5384072526875</v>
       </c>
     </row>
     <row r="8550" spans="1:2">
@@ -68919,7 +68919,7 @@
         <v>8572</v>
       </c>
       <c r="B8572">
-        <v>351.6439233771631</v>
+        <v>351.643923377163</v>
       </c>
     </row>
     <row r="8573" spans="1:2">
@@ -68927,7 +68927,7 @@
         <v>8573</v>
       </c>
       <c r="B8573">
-        <v>333.1136277446836</v>
+        <v>333.1136277446835</v>
       </c>
     </row>
     <row r="8574" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>115.9005105883636</v>
+        <v>115.9005105883635</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69215,7 +69215,7 @@
         <v>8609</v>
       </c>
       <c r="B8609">
-        <v>53.80286049056576</v>
+        <v>53.80286049056575</v>
       </c>
     </row>
     <row r="8610" spans="1:2">
@@ -69231,7 +69231,7 @@
         <v>8611</v>
       </c>
       <c r="B8611">
-        <v>96.77264310805354</v>
+        <v>96.77264310805351</v>
       </c>
     </row>
     <row r="8612" spans="1:2">
@@ -69263,7 +69263,7 @@
         <v>8615</v>
       </c>
       <c r="B8615">
-        <v>178.9453662831149</v>
+        <v>178.9453662831148</v>
       </c>
     </row>
     <row r="8616" spans="1:2">
@@ -69367,7 +69367,7 @@
         <v>8628</v>
       </c>
       <c r="B8628">
-        <v>788.8994654970397</v>
+        <v>788.8994654970396</v>
       </c>
     </row>
     <row r="8629" spans="1:2">
@@ -69423,7 +69423,7 @@
         <v>8635</v>
       </c>
       <c r="B8635">
-        <v>979.8560552286513</v>
+        <v>979.856055228651</v>
       </c>
     </row>
     <row r="8636" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>343.0197219224757</v>
+        <v>343.0197219224756</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69607,7 +69607,7 @@
         <v>8658</v>
       </c>
       <c r="B8658">
-        <v>663.7786469613517</v>
+        <v>663.7786469613516</v>
       </c>
     </row>
     <row r="8659" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>90.99943671746371</v>
+        <v>90.99943671746369</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>98.79073028027557</v>
+        <v>98.79073028027555</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69679,7 +69679,7 @@
         <v>8667</v>
       </c>
       <c r="B8667">
-        <v>98.69049998505339</v>
+        <v>98.69049998505338</v>
       </c>
     </row>
     <row r="8668" spans="1:2">
@@ -69727,7 +69727,7 @@
         <v>8673</v>
       </c>
       <c r="B8673">
-        <v>656.6986368093709</v>
+        <v>656.6986368093708</v>
       </c>
     </row>
     <row r="8674" spans="1:2">
@@ -69751,7 +69751,7 @@
         <v>8676</v>
       </c>
       <c r="B8676">
-        <v>584.2561651889049</v>
+        <v>584.2561651889048</v>
       </c>
     </row>
     <row r="8677" spans="1:2">
@@ -69759,7 +69759,7 @@
         <v>8677</v>
       </c>
       <c r="B8677">
-        <v>579.0995802636585</v>
+        <v>579.0995802636584</v>
       </c>
     </row>
     <row r="8678" spans="1:2">
@@ -69815,7 +69815,7 @@
         <v>8684</v>
       </c>
       <c r="B8684">
-        <v>45.17396989925977</v>
+        <v>45.17396989925976</v>
       </c>
     </row>
     <row r="8685" spans="1:2">
@@ -70343,7 +70343,7 @@
         <v>8750</v>
       </c>
       <c r="B8750">
-        <v>949.4514003227299</v>
+        <v>949.4514003227298</v>
       </c>
     </row>
     <row r="8751" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>944.4055962500976</v>
+        <v>944.4055962500975</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>870.3738003869711</v>
+        <v>870.373800386971</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
